--- a/results/timing data.xlsx
+++ b/results/timing data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa5719158718e71e/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aysar\OneDrive\Desktop\New folder\project1\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_2C44BDEC2040C98AC652E4742470DE8A1998AE39" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B129B8F-1625-47BF-8145-E3C162AC365C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62334D0C-AF68-464D-B75B-03B973F7870D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11895" yWindow="1110" windowWidth="8175" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Image Size</t>
   </si>
@@ -45,37 +45,34 @@
     <t xml:space="preserve">1× </t>
   </si>
   <si>
-    <t>1.057×</t>
-  </si>
-  <si>
-    <t>1.318×</t>
-  </si>
-  <si>
-    <t>1.802×</t>
-  </si>
-  <si>
     <t>1000 x 1000</t>
   </si>
   <si>
-    <t>1.759×</t>
-  </si>
-  <si>
-    <t>1.788×</t>
-  </si>
-  <si>
-    <t>2.312×</t>
-  </si>
-  <si>
     <t>2000 x 2000</t>
   </si>
   <si>
-    <t>1.771×</t>
-  </si>
-  <si>
-    <t>2.340×</t>
-  </si>
-  <si>
-    <t>3.150×</t>
+    <t>2.89629x</t>
+  </si>
+  <si>
+    <t>2.25097x</t>
+  </si>
+  <si>
+    <t>1.66521x</t>
+  </si>
+  <si>
+    <t>2.61028x</t>
+  </si>
+  <si>
+    <t>1.9131x</t>
+  </si>
+  <si>
+    <t>1.189x</t>
+  </si>
+  <si>
+    <t>0.965216x</t>
+  </si>
+  <si>
+    <t>1.03392x</t>
   </si>
 </sst>
 </file>
@@ -438,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B11:E13"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>5.7320000000000001E-3</v>
+        <v>6.1879999999999999E-3</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -484,10 +481,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>5.4209999999999996E-3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>7.6080000000000002E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.81299999999999994</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -496,10 +493,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>4.3499999999999997E-3</v>
+        <v>5.9849999999999999E-3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -508,21 +505,21 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>3.1809999999999998E-3</v>
+        <v>6.411E-3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>2.3134999999999999E-2</v>
+        <v>2.5693000000000001E-2</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
@@ -534,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>1.3155999999999999E-2</v>
+        <v>2.1609E-2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -546,10 +543,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>1.2937000000000001E-2</v>
+        <v>1.3429999999999999E-2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -558,21 +555,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>1.0005999999999999E-2</v>
+        <v>9.8429999999999993E-3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>9.5343999999999998E-2</v>
+        <v>0.12327200000000001</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>5</v>
@@ -584,10 +581,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="2">
-        <v>5.3850000000000002E-2</v>
+        <v>7.4027999999999997E-2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -596,10 +593,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>4.0743000000000001E-2</v>
+        <v>5.4764E-2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -608,10 +605,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="2">
-        <v>3.0265E-2</v>
+        <v>4.2562000000000003E-2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
